--- a/LandVoc-concepts-es.xlsx
+++ b/LandVoc-concepts-es.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptos LandVoc Jerarquia" sheetId="3" r:id="rId1"/>
@@ -5553,8 +5553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15072,8 +15072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25215,7 +25215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G4"/>
     </sheetView>
   </sheetViews>
